--- a/CustomerData/netlist_TestIEEE14Bus.xlsx
+++ b/CustomerData/netlist_TestIEEE14Bus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A1F555-6B5C-49D3-A7E7-B2172E5E493B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA44DE8C-18AA-4DE5-A570-3350462B927A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1440" windowWidth="14400" windowHeight="7372" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1367,7 +1367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -1940,7 +1940,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
